--- a/csv/参照式作成.xlsx
+++ b/csv/参照式作成.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aoifu\source\TiltedOpticsDepthIntro\csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD26836B-B964-4026-B1A0-0E69F35E500F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EC54423-BDE1-43C8-93F8-FE807425697E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -210,7 +210,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>後ろぼけ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -219,6 +274,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>データ</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -241,6 +299,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$B$11:$B$24</c:f>
@@ -302,9 +411,14 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>近似</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -324,6 +438,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$D$11:$D$24</c:f>
@@ -383,6 +548,7 @@
           </c:extLst>
         </c:ser>
         <c:dLbls>
+          <c:dLblPos val="t"/>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
           <c:showCatName val="0"/>
@@ -414,6 +580,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>距離（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -475,6 +705,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>座標</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -524,6 +813,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -582,7 +902,62 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
-    <c:autoTitleDeleted val="1"/>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ja-JP" altLang="en-US"/>
+              <a:t>前ぼけ</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
@@ -591,6 +966,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>データ</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:noFill/>
@@ -613,6 +991,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$C$11:$C$24</c:f>
@@ -674,9 +1103,14 @@
         <c:ser>
           <c:idx val="1"/>
           <c:order val="1"/>
+          <c:tx>
+            <c:v>近似</c:v>
+          </c:tx>
           <c:spPr>
-            <a:ln w="25400" cap="rnd">
-              <a:noFill/>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
               <a:round/>
             </a:ln>
             <a:effectLst/>
@@ -696,6 +1130,57 @@
               <a:effectLst/>
             </c:spPr>
           </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Sheet1!$A$11:$A$24</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="14"/>
+                <c:pt idx="0">
+                  <c:v>1500</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1600</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1700</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1800</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1900</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2000</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2100</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2200</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2300</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2400</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2500</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2600</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2700</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2800</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
           <c:yVal>
             <c:numRef>
               <c:f>Sheet1!$E$11:$E$24</c:f>
@@ -786,6 +1271,70 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>距離（</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>mm</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>）</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -847,6 +1396,65 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" altLang="ja-JP"/>
+                  <a:t>y</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="ja-JP" altLang="en-US"/>
+                  <a:t>座標</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ja-JP"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
@@ -896,6 +1504,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ja-JP"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -2148,15 +2787,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>788893</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>22412</xdr:rowOff>
+      <xdr:colOff>584560</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>193033</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>564775</xdr:colOff>
-      <xdr:row>31</xdr:row>
-      <xdr:rowOff>201706</xdr:rowOff>
+      <xdr:colOff>360442</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>147191</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2449,8 +3088,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="88" zoomScaleNormal="88" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" topLeftCell="D8" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="Q17" sqref="Q17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
